--- a/DataSheet/FOS_Till_UW.xlsx
+++ b/DataSheet/FOS_Till_UW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89F3A3A-A9D4-4411-8A90-BD6F45EB2E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958A3740-850E-4BFB-B75C-A917CB9B0294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2837,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="74" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="74" workbookViewId="0">
+      <selection activeCell="F408" sqref="F408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
